--- a/results/mod2.galtan_corrupt.corrupt.eff.MN.xlsx
+++ b/results/mod2.galtan_corrupt.corrupt.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0788475625152807</v>
+        <v>-0.0788486965721035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0447453854684407</v>
+        <v>0.0447449362922942</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.166546906507786</v>
+        <v>-0.166547160195539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00885178147722497</v>
+        <v>0.00884976705133236</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.76213841248261</v>
+        <v>-1.76218144679049</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0780459146290509</v>
+        <v>0.0780386457470734</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.323887640580478</v>
+        <v>0.323889287627092</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102333021061183</v>
+        <v>0.10233153899579</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123318604871381</v>
+        <v>0.123323156712788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.524456676289574</v>
+        <v>0.524455418541396</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1650354618851</v>
+        <v>3.16509739622325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00155064050991893</v>
+        <v>0.00155031046923244</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.114331097180565</v>
+        <v>-0.114330977285922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0462190263847888</v>
+        <v>0.0462186159828869</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.204918724295258</v>
+        <v>-0.204917800027667</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0237434700658728</v>
+        <v>-0.0237441545441762</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.47368034602721</v>
+        <v>-2.47369971719306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0133729289307533</v>
+        <v>0.0133722039258602</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.130708980884632</v>
+        <v>-0.130709613769066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.038339722483077</v>
+        <v>0.0383392759216593</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.205853456128723</v>
+        <v>-0.205853213768862</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0555645056405404</v>
+        <v>-0.0555660137692706</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.40923127292657</v>
+        <v>-3.40928748983555</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000651462255971168</v>
+        <v>0.000651328012279038</v>
       </c>
     </row>
   </sheetData>
